--- a/data_impute_project/data/marine_mammals.xlsx
+++ b/data_impute_project/data/marine_mammals.xlsx
@@ -436,57 +436,57 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>species</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>specimen</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>habitat</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>diet</t>
+          <t>D</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>E</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>δ13C coll</t>
+          <t>F</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>δ15N coll</t>
+          <t>G</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>δ13C carb</t>
+          <t>H</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>δ18O carb</t>
+          <t>I</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>δ18O phos</t>
+          <t>J</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>δ34S coll</t>
+          <t>K</t>
         </is>
       </c>
     </row>

--- a/data_impute_project/data/marine_mammals.xlsx
+++ b/data_impute_project/data/marine_mammals.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>F</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +487,11 @@
         <v>15.6</v>
       </c>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Hb 19</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -502,6 +512,11 @@
       <c r="F3" t="n">
         <v>12.94</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Hb 20</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -518,6 +533,11 @@
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>32 FO1Hepi</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -534,6 +554,11 @@
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>33 FO2H</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -554,6 +579,11 @@
       <c r="F6" t="n">
         <v>12.56</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>S 17</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -570,6 +600,11 @@
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>20 KR1Ph</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -586,6 +621,11 @@
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>21 KR2T</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -602,6 +642,11 @@
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>22 KR3S</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -618,6 +663,11 @@
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>23 KR4V</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -634,6 +684,11 @@
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>24 KR5Mt</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -650,6 +705,11 @@
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>71 KR1BuTy</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -666,6 +726,11 @@
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>72 KR2Sc</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -682,6 +747,11 @@
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>73 KR3Mt</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -698,6 +768,11 @@
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>74 KR4Fi</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -714,6 +789,11 @@
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>75 KR5Mt</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -732,6 +812,11 @@
         <v>19.59</v>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Hb 50</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -750,6 +835,11 @@
         <v>15.3</v>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Hb 28</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -770,6 +860,11 @@
       <c r="F19" t="n">
         <v>21.15</v>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Hb 30</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -788,6 +883,11 @@
       <c r="F20" t="n">
         <v>16.22</v>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>KHb 25</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -804,6 +904,11 @@
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>26 SR2Fi</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -822,6 +927,11 @@
         <v>17.21</v>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hb 23</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -838,6 +948,11 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hb 24</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -856,6 +971,11 @@
       <c r="F24" t="n">
         <v>15.13</v>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hb 25</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -874,6 +994,11 @@
         <v>15.58</v>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Hb 26</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -892,6 +1017,11 @@
         <v>15.25</v>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Hb 27</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -910,6 +1040,11 @@
       <c r="F27" t="n">
         <v>15.49</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>KHb 30</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -928,6 +1063,11 @@
       <c r="F28" t="n">
         <v>14.81</v>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>KHb 31</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -944,6 +1084,11 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>27 SH1Ph</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -960,6 +1105,11 @@
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>28 SH2R</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -976,6 +1126,11 @@
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>29 SH3V</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -993,6 +1148,11 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
         <v>14.36</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>KS 76</t>
+        </is>
       </c>
     </row>
   </sheetData>
